--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -280,6 +280,230 @@
         <v>41.0</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -504,6 +504,62 @@
         <v>41.0</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>Jez Humble</t>
+  </si>
+  <si>
+    <t>El que se duerme pierde</t>
+  </si>
+  <si>
+    <t>Tom Peter</t>
+  </si>
+  <si>
+    <t>Sin lugar a duda</t>
+  </si>
+  <si>
+    <t>Ana Gutierrez</t>
+  </si>
+  <si>
+    <t>El arte de dormir</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Buscando a Nemo</t>
+  </si>
+  <si>
+    <t>Humble Po</t>
+  </si>
+  <si>
+    <t>Jose Ramirez</t>
   </si>
 </sst>
 </file>
@@ -422,8 +449,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -492,8 +519,8 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>102</v>
+      <c r="D5" t="n">
+        <v>432.0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>52</v>
@@ -577,6 +604,118 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="n">
         <v>41.0</v>
       </c>
     </row>

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -13,6 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Java Books" r:id="rId1" sheetId="1"/>
+    <sheet name="Java Books 1" r:id="rId5" sheetId="2"/>
+    <sheet name="Java Books 2" r:id="rId6" sheetId="3"/>
+    <sheet name="Java Books 3" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -96,6 +99,30 @@
   </si>
   <si>
     <t>Jez Humble</t>
+  </si>
+  <si>
+    <t>El que se duerme pierde</t>
+  </si>
+  <si>
+    <t>Tom Peter</t>
+  </si>
+  <si>
+    <t>Sin lugar a duda</t>
+  </si>
+  <si>
+    <t>Ana Gutierrez</t>
+  </si>
+  <si>
+    <t>El arte de dormir</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Buscando a Nemo</t>
+  </si>
+  <si>
+    <t>Humble Po</t>
   </si>
 </sst>
 </file>
@@ -422,8 +449,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,7 +607,955 @@
         <v>41.0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -887,6 +887,118 @@
         <v>41.0</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
